--- a/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1904.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1904.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\csk\year-volumes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-dvizhenie-evropriskoi-chasti-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EA4524-C557-45B2-8C1D-73F9107ABFF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FD08DB-A84A-4438-8E3F-BB2D3CA27524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" activeTab="1" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
+    <workbookView xWindow="82605" yWindow="0" windowWidth="31005" windowHeight="23295" activeTab="1" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -214,12 +219,6 @@
     <t>v</t>
   </si>
   <si>
-    <t>чc-м</t>
-  </si>
-  <si>
-    <t>чc-ж</t>
-  </si>
-  <si>
     <t>чс-о</t>
   </si>
   <si>
@@ -239,6 +238,12 @@
   </si>
   <si>
     <t>стр. X, 15, 93</t>
+  </si>
+  <si>
+    <t>чс-м</t>
+  </si>
+  <si>
+    <t>чс-ж</t>
   </si>
 </sst>
 </file>
@@ -248,7 +253,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -649,11 +654,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -666,18 +671,18 @@
   <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.68359375" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.83984375" customWidth="1"/>
+    <col min="13" max="13" width="11.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -709,31 +714,31 @@
         <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="P1" s="7" t="s">
         <v>59</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -797,7 +802,7 @@
         <v>-4.3125489172972209E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -861,7 +866,7 @@
         <v>4.9560273607532679E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -925,7 +930,7 @@
         <v>4.6720116618075735E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -989,7 +994,7 @@
         <v>-4.9251539287126889E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1053,7 +1058,7 @@
         <v>-5.968360498560088E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1117,7 +1122,7 @@
         <v>2.6526717557253221E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1181,7 +1186,7 @@
         <v>-2.4397569799987195E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1244,7 +1249,7 @@
         <v>-1.5624273424784008E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1307,7 +1312,7 @@
         <v>1.394243822970509E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1370,7 +1375,7 @@
         <v>3.0171787344130507E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1433,7 +1438,7 @@
         <v>-7.2223153893453684E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1496,7 +1501,7 @@
         <v>-3.8570424656157343E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1559,7 +1564,7 @@
         <v>1.4472969828588589E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1622,7 +1627,7 @@
         <v>-8.7965710517643458E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1685,7 +1690,7 @@
         <v>-4.8308870453098507E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1748,7 +1753,7 @@
         <v>-4.7204298437186765E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1811,7 +1816,7 @@
         <v>-7.9697754229634654E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1874,7 +1879,7 @@
         <v>-0.10598513495892448</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1937,7 +1942,7 @@
         <v>-1.2875658738071394E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2000,7 +2005,7 @@
         <v>-4.2946335662254143E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2063,7 +2068,7 @@
         <v>-2.5796224239805099E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2126,7 +2131,7 @@
         <v>-1.8838254172013791E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2189,7 +2194,7 @@
         <v>-9.6295538272617165E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2252,7 +2257,7 @@
         <v>-2.6754268688641503E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2315,7 +2320,7 @@
         <v>-1.6881647431546298E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2378,7 +2383,7 @@
         <v>-1.4446653412854005E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2441,7 +2446,7 @@
         <v>-1.2176560121766045E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2504,7 +2509,7 @@
         <v>-2.5090991810735375E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2567,7 +2572,7 @@
         <v>9.066246608909978E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2630,7 +2635,7 @@
         <v>-3.7735849056602433E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2693,7 +2698,7 @@
         <v>-7.5710748486024215E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2756,7 +2761,7 @@
         <v>-4.6663356794486077E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2819,7 +2824,7 @@
         <v>-4.5541371453538204E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2882,7 +2887,7 @@
         <v>-3.4910908651131223E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2945,7 +2950,7 @@
         <v>-2.8911631568590224E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -3008,7 +3013,7 @@
         <v>-1.9723840891813893E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -3071,7 +3076,7 @@
         <v>-1.583710407239991E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -3134,7 +3139,7 @@
         <v>1.5213500383531198E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -3197,7 +3202,7 @@
         <v>-2.4471123025818997E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -3260,7 +3265,7 @@
         <v>2.3318910068994114E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -3323,7 +3328,7 @@
         <v>-5.1124744376274123E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -3386,7 +3391,7 @@
         <v>-3.0019352510908703E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -3449,7 +3454,7 @@
         <v>4.6501275446402701E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -3512,7 +3517,7 @@
         <v>9.6377992229648157E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -3575,7 +3580,7 @@
         <v>-4.7156426122256789E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -3638,7 +3643,7 @@
         <v>-1.9924602066463848E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -3701,7 +3706,7 @@
         <v>-7.0189014334644639E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -3764,7 +3769,7 @@
         <v>-3.9098540421992567E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -3827,7 +3832,7 @@
         <v>-3.1453605931019979E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -3890,7 +3895,7 @@
         <v>-5.1215474427113605E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -3953,14 +3958,14 @@
         <v>5.5048371570897814E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22">
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22">
       <c r="A54" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B54" s="4">
         <f>SUM(B2:B51)</f>
@@ -3991,7 +3996,7 @@
         <v>3153146</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22">
       <c r="B55" s="4">
         <f>B52-B54</f>
         <v>0</v>

--- a/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1904.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1904.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-dvizhenie-evropriskoi-chasti-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FD08DB-A84A-4438-8E3F-BB2D3CA27524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA20C30-9019-45BF-9C12-87B91058CA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="82605" yWindow="0" windowWidth="31005" windowHeight="23295" activeTab="1" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
+    <workbookView xWindow="84735" yWindow="1755" windowWidth="29700" windowHeight="16770" activeTab="1" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="2" r:id="rId1"/>
@@ -671,7 +671,8 @@
   <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
